--- a/数据整理/stocks/A股/上证主板/603787-新日股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603787-新日股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510081</t>
+          <t>001239</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛动态精选混合</t>
+          <t>长盛国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5324</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000551</t>
+          <t>510081</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信诚幸福消费混合</t>
+          <t>长盛动态精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2518</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.48</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>7.21</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001239</t>
+          <t>000551</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长盛国企改革主题灵活配置混合</t>
+          <t>信诚幸福消费混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>92.93</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.67</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>92.93</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.67</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -716,15 +796,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>29.55</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.32</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>29.55</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.32</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603787-新日股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603787-新日股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603787-新日股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603787-新日股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603787-新日股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603787-新日股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603787-新日股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603787-新日股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1330,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1346,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603787-新日股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603787-新日股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1267,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,17 +1279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1298,14 +1319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1314,14 +1357,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -1330,14 +1463,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -1346,14 +1479,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="6">
@@ -1362,13 +1495,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603787-新日股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603787-新日股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,281 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001239</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长盛国企改革主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5324</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>510081</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长盛动态精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2518</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000598</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长盛生态环境主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1269</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="D6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000551</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>信诚幸福消费混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.86</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1078</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005855</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005856</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -761,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -801,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29.55</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1086</t>
+          <t>0.0682</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -839,26 +687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29.55</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0244</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -893,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -933,26 +781,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27.94</t>
+          <t>28.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1197</t>
+          <t>0.0843</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -971,26 +819,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>27.94</t>
+          <t>28.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0412</t>
+          <t>0.0233</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1157,7 +1005,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1197,26 +1045,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28.73</t>
+          <t>27.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0843</t>
+          <t>0.1197</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1235,26 +1083,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>28.73</t>
+          <t>27.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0233</t>
+          <t>0.0412</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1289,7 +1137,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1329,26 +1177,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>36.45</t>
+          <t>29.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0682</t>
+          <t>0.1086</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1367,26 +1215,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36.45</t>
+          <t>29.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0244</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1400,128 +1248,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5324</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2518</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.12</v>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.16</v>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.13</v>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.05</v>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603787-新日股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603787-新日股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.05</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>36.45</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0682</t>
+          <t>0.0591</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -687,25 +704,101 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36.45</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0379</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013368</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013367</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -781,22 +874,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28.73</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0843</t>
+          <t>0.0682</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -819,22 +912,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>28.73</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0233</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -873,7 +966,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -913,26 +1006,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>28.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0872</t>
+          <t>0.0843</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -951,26 +1044,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>28.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0288</t>
+          <t>0.0233</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1045,26 +1138,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27.94</t>
+          <t>25.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1197</t>
+          <t>0.0872</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1083,26 +1176,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>27.94</t>
+          <t>25.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0412</t>
+          <t>0.0288</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1177,26 +1270,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29.55</t>
+          <t>27.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1086</t>
+          <t>0.1197</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1215,26 +1308,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29.55</t>
+          <t>27.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0244</t>
+          <t>0.0412</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1243,6 +1336,138 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603787-新日股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603787-新日股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.05</v>
       </c>
     </row>
@@ -600,6 +617,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004413</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -799,138 +910,6 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004818</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>36.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0682</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004819</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>36.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1006,22 +985,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28.73</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0843</t>
+          <t>0.0682</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1044,22 +1023,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>28.73</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0233</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1098,7 +1077,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1138,26 +1117,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>28.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0872</t>
+          <t>0.0843</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1176,26 +1155,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>28.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0288</t>
+          <t>0.0233</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1270,26 +1249,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27.94</t>
+          <t>25.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1197</t>
+          <t>0.0872</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1308,26 +1287,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>27.94</t>
+          <t>25.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0412</t>
+          <t>0.0288</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1402,26 +1381,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29.55</t>
+          <t>27.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1086</t>
+          <t>0.1197</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1440,26 +1419,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29.55</t>
+          <t>27.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0244</t>
+          <t>0.0412</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1468,6 +1447,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
